--- a/public/forms/evaluation-form.xlsx
+++ b/public/forms/evaluation-form.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10EBD2DD-48CE-2E4E-9901-C59090C6B88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10A9664F-1F8E-4D44-9A30-55CFDF2C5314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="836" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="هه‌لسه‌نگاندنی سه‌ره‌تایی" sheetId="1" r:id="rId1"/>
-    <sheet name="هه‌لسه‌نگاندنی كۆتایی(هه‌لسێنگه" sheetId="6" r:id="rId2"/>
-    <sheet name="هه‌لسه‌نگاندنی كۆتایی)سه‌رپرشتی" sheetId="7" r:id="rId3"/>
-    <sheet name="تاقیكردنه‌وه‌ی تیۆری " sheetId="11" r:id="rId4"/>
-    <sheet name="نمره‌ی كۆتایی  " sheetId="14" r:id="rId5"/>
+    <sheet name="name" sheetId="2" r:id="rId1"/>
+    <sheet name="Test" sheetId="12" r:id="rId2"/>
+    <sheet name="هه‌لسه‌نگاندنی سه‌ره‌تایی" sheetId="1" r:id="rId3"/>
+    <sheet name="هه‌لسه‌نگاندنی كۆتایی(هه‌لسێنگه" sheetId="6" r:id="rId4"/>
+    <sheet name="هه‌لسه‌نگاندنی كۆتایی)سه‌رپرشتی" sheetId="7" r:id="rId5"/>
+    <sheet name="تاقیكردنه‌وه‌ی تیۆری " sheetId="11" r:id="rId6"/>
+    <sheet name="نمره‌ی كۆتایی  " sheetId="14" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="32">
   <si>
     <t>ژ</t>
   </si>
@@ -184,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +210,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Unikurd Jino"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Unikurd Jino"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -574,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,9 +615,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,16 +644,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -642,10 +662,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,10 +686,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -705,28 +726,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -753,7 +774,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -765,16 +786,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1345,18 +1366,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.53515625" customWidth="1"/>
+    <col min="2" max="2" width="28.78515625" customWidth="1"/>
+    <col min="3" max="3" width="69.546875" customWidth="1"/>
+    <col min="4" max="4" width="30.40234375" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="CO39" sqref="CO39"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.8984375" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="61.609375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="61.609375" style="19" customWidth="1"/>
     <col min="4" max="4" width="11.97265625" customWidth="1"/>
     <col min="5" max="5" width="4.16796875" customWidth="1"/>
     <col min="6" max="7" width="4.70703125" customWidth="1"/>
@@ -1366,123 +1658,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1493,8 +1785,8 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1505,8 +1797,8 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1517,8 +1809,8 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1529,8 +1821,8 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1541,8 +1833,8 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1553,8 +1845,8 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1565,8 +1857,8 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1577,8 +1869,8 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1589,8 +1881,8 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1601,8 +1893,8 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1613,8 +1905,8 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1625,8 +1917,8 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1637,8 +1929,8 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1649,8 +1941,8 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1661,8 +1953,8 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1673,8 +1965,8 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1685,8 +1977,8 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1697,8 +1989,8 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1709,8 +2001,8 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1721,8 +2013,8 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1733,8 +2025,8 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1745,8 +2037,8 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1757,8 +2049,8 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1769,8 +2061,8 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1781,8 +2073,8 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1793,8 +2085,8 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1805,8 +2097,8 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1817,8 +2109,8 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1829,8 +2121,8 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1841,8 +2133,8 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1853,8 +2145,8 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1865,8 +2157,8 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1877,8 +2169,8 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1889,8 +2181,8 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1901,8 +2193,8 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1913,8 +2205,8 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1925,8 +2217,8 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1937,8 +2229,8 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1949,8 +2241,8 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1961,8 +2253,8 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1973,8 +2265,8 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1985,8 +2277,8 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1997,8 +2289,8 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2009,8 +2301,8 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2021,8 +2313,8 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2033,8 +2325,8 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2045,8 +2337,8 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2057,8 +2349,8 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2069,8 +2361,8 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2081,8 +2373,8 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2093,8 +2385,8 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2105,8 +2397,8 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2117,8 +2409,8 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2129,8 +2421,8 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2141,8 +2433,8 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2153,8 +2445,8 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2165,8 +2457,8 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -2194,19 +2486,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:T4"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.8984375" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="59.45703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="59.45703125" style="19" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="18" width="3.2265625" customWidth="1"/>
     <col min="19" max="19" width="3.359375" customWidth="1"/>
@@ -2216,193 +2508,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="35"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="60"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="63"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
     </row>
     <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="23" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="41"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="45"/>
     </row>
     <row r="6" spans="1:22" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="53"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="57"/>
     </row>
     <row r="7" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="49" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="47" t="s">
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="20" t="s">
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2431,11 +2721,9 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2457,11 +2745,9 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2482,8 +2768,8 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2506,8 +2792,8 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2530,8 +2816,8 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2554,8 +2840,8 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
@@ -2582,10 +2868,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2632,10 +2918,10 @@
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2684,10 +2970,10 @@
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2736,10 +3022,10 @@
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2788,10 +3074,10 @@
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2840,10 +3126,10 @@
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2892,10 +3178,10 @@
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2944,10 +3230,10 @@
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2994,8 +3280,8 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3016,8 +3302,8 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3038,8 +3324,8 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3060,8 +3346,8 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -3082,8 +3368,8 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -3104,8 +3390,8 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -3126,8 +3412,8 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -3148,8 +3434,8 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3170,8 +3456,8 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -3192,8 +3478,8 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -3214,8 +3500,8 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3236,8 +3522,8 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -3258,8 +3544,8 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -3280,8 +3566,8 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3302,8 +3588,8 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3324,8 +3610,8 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -3346,8 +3632,8 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -3368,8 +3654,8 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -3390,8 +3676,8 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3412,8 +3698,8 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3434,8 +3720,8 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -3456,8 +3742,8 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -3478,8 +3764,8 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -3500,8 +3786,8 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3522,8 +3808,8 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3544,8 +3830,8 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3566,8 +3852,8 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3588,8 +3874,8 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3610,8 +3896,8 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3632,8 +3918,8 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3654,8 +3940,8 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3676,8 +3962,8 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3698,8 +3984,8 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3720,8 +4006,8 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3742,8 +4028,8 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3764,8 +4050,8 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3786,8 +4072,8 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3808,8 +4094,8 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3830,8 +4116,8 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3852,8 +4138,8 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3874,8 +4160,8 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3896,8 +4182,8 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3918,8 +4204,8 @@
     </row>
     <row r="65" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -3957,19 +4243,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:J4"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.8984375" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="66.18359375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="66.18359375" style="19" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="8" width="4.70703125" customWidth="1"/>
     <col min="9" max="9" width="5.6484375" customWidth="1"/>
@@ -3979,119 +4265,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="23" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
     </row>
     <row r="6" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="60" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="20" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -4105,8 +4391,8 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4117,8 +4403,8 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -4129,8 +4415,8 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -4141,8 +4427,8 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -4153,8 +4439,8 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -4165,8 +4451,8 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -4177,8 +4463,8 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -4189,8 +4475,8 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -4201,8 +4487,8 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -4213,8 +4499,8 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -4225,8 +4511,8 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -4237,8 +4523,8 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4249,8 +4535,8 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -4261,8 +4547,8 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -4273,8 +4559,8 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -4285,8 +4571,8 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -4297,8 +4583,8 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -4309,8 +4595,8 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -4321,8 +4607,8 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -4333,8 +4619,8 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4345,8 +4631,8 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -4357,8 +4643,8 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -4369,8 +4655,8 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -4381,8 +4667,8 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -4393,8 +4679,8 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -4405,8 +4691,8 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -4417,8 +4703,8 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -4429,8 +4715,8 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -4441,8 +4727,8 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -4453,8 +4739,8 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -4465,8 +4751,8 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -4477,8 +4763,8 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -4489,8 +4775,8 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -4501,8 +4787,8 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -4513,8 +4799,8 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -4525,8 +4811,8 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -4537,8 +4823,8 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -4549,8 +4835,8 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -4561,8 +4847,8 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -4573,8 +4859,8 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -4585,8 +4871,8 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -4597,8 +4883,8 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -4609,8 +4895,8 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -4621,8 +4907,8 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -4633,8 +4919,8 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -4645,8 +4931,8 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -4657,8 +4943,8 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -4669,8 +4955,8 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -4681,8 +4967,8 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -4693,8 +4979,8 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -4705,8 +4991,8 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -4717,8 +5003,8 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -4729,8 +5015,8 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -4741,8 +5027,8 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -4753,8 +5039,8 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4765,8 +5051,8 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -4777,8 +5063,8 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -4805,19 +5091,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.8984375" customWidth="1"/>
-    <col min="2" max="2" width="26.76953125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="26.76953125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="26.76953125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="26.76953125" style="13" customWidth="1"/>
     <col min="4" max="4" width="21.7890625" customWidth="1"/>
     <col min="5" max="5" width="39.546875" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
@@ -4825,61 +5111,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="64" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="65"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="31"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="4"/>
@@ -4889,112 +5175,112 @@
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="31"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="31"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="31"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="31"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="31"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="31"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="31"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="31"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="31"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="31"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="31"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="31"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="31"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="11"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
@@ -5013,19 +5299,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.8984375" customWidth="1"/>
-    <col min="2" max="2" width="26.76953125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="26.76953125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="26.76953125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="26.76953125" style="13" customWidth="1"/>
     <col min="4" max="4" width="21.7890625" customWidth="1"/>
     <col min="5" max="5" width="39.546875" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
@@ -5033,55 +5319,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="64" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="65"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="32" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5089,7 +5375,7 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="4"/>
@@ -5101,7 +5387,7 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="4"/>
@@ -5110,7 +5396,7 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4"/>
@@ -5119,7 +5405,7 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="4"/>
@@ -5128,7 +5414,7 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="4"/>
@@ -5137,7 +5423,7 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="4"/>
@@ -5146,7 +5432,7 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
@@ -5155,7 +5441,7 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="4"/>
@@ -5164,7 +5450,7 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="4"/>
@@ -5173,7 +5459,7 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
@@ -5182,7 +5468,7 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="4"/>
@@ -5191,7 +5477,7 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="4"/>
@@ -5200,7 +5486,7 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
@@ -5209,7 +5495,7 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="4"/>
@@ -5218,21 +5504,21 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="11"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
@@ -5249,4 +5535,16 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8292117D-74F6-4218-9575-D5D04744ECEA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>